--- a/biology/Botanique/David_Bramwell/David_Bramwell.xlsx
+++ b/biology/Botanique/David_Bramwell/David_Bramwell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Bramwell, né le 23 novembre 1942 à Liverpool (Angleterre) et mort le 20 janvier 2022 à Las Palmas de Gran Canaria[1], est un botaniste britannique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Bramwell, né le 23 novembre 1942 à Liverpool (Angleterre) et mort le 20 janvier 2022 à Las Palmas de Gran Canaria, est un botaniste britannique.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">David Bramwell étudie la botanique à l'université de Liverpool. Du mois d'août 1974 au mois de novembre 2012, il dirige le Jardín Botánico Canario Viera y Clavijo, situé sur l'île de Grande Canarie[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">David Bramwell étudie la botanique à l'université de Liverpool. Du mois d'août 1974 au mois de novembre 2012, il dirige le Jardín Botánico Canario Viera y Clavijo, situé sur l'île de Grande Canarie.
 Il est spécialiste de la flore des îles Canaries et des Crassulacées.
 </t>
         </is>
@@ -545,15 +559,54 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ouvrages
-(es + en) David Bramwell et Alex Bramwell, Excursiones botánicas por las Islas Canarias = Botanical excursions in the Canary Islands, 2014, 129 p.
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(es + en) David Bramwell et Alex Bramwell, Excursiones botánicas por las Islas Canarias = Botanical excursions in the Canary Islands, 2014, 129 p.
 (en) David Bramwell et Juli Caujapé-Castells (coordinateurs), The biology of island floras, Cambridge, Cambridge University Press, 2011, XV-522 p. (ISBN 978-0-521-11808-8, OCLC 712644495)
 (en) David Bramwell et Zoë I. Bramwell, Wild flowers of the Canary Islands, 1974, 261 p. (ISBN 978-0-85950-010-4 et 0859500101)
 (es) David Bramwell et Zoë I. Bramwell, Flores silvestres de las Islas Canarias, Madrid, Editorial Rueda, 1994, xvi, 376 (ISBN 978-84-7207-062-2 et 847207062X)
 (en) David Bramwell, Plants and islands, Londres, Academic Press, 1979, 459 p. (ISBN 978-0-12-125460-5, OCLC 475419071)
-(es) David Bramwell et Zoë I. Bramwell, Jardines subtropicales, Alcorcón (Madrid), Editorial Rueda, 1995 (ISBN 84-7207-085-9, OCLC 39094477)
-Articles
-(en) David Bramwell, « Medicinal plants of the Canary Islands », Medicinal Plant Conservation, IUCN, vol. 12,‎ novembre 2006, p. 36-39 (ISSN 1430-953X, lire en ligne)</t>
+(es) David Bramwell et Zoë I. Bramwell, Jardines subtropicales, Alcorcón (Madrid), Editorial Rueda, 1995 (ISBN 84-7207-085-9, OCLC 39094477)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>David_Bramwell</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/David_Bramwell</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Publications</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Articles</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) David Bramwell, « Medicinal plants of the Canary Islands », Medicinal Plant Conservation, IUCN, vol. 12,‎ novembre 2006, p. 36-39 (ISSN 1430-953X, lire en ligne)</t>
         </is>
       </c>
     </row>
